--- a/biology/Zoologie/Amebelodon/Amebelodon.xlsx
+++ b/biology/Zoologie/Amebelodon/Amebelodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,8 +520,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-Le genre Amebelodon et son espèce type Amebelodon fricki ont été décrits en 1927 par Erwin Hinckly Barbour.
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Amebelodon et son espèce type Amebelodon fricki ont été décrits en 1927 par Erwin Hinckly Barbour.
 </t>
         </is>
       </c>
@@ -538,7 +555,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Amebelodon avait en commun avec les éléphants actuels des membres en colonne particulièrement puissants, terminés par cinq doigts, ainsi qu'un museau prolongé par une trompe. Ses défenses supérieures étaient relativement courtes. Amebelodon possédait en outre des défenses inférieures assez particulières : logées dans le rostre de la mandibule, elle formaient une sorte de double « pelle », peut-être destinée à déterrer les plantes et les racines dont il se nourrissait. Il s'agit d'une caractéristique propre aux Amebelodontinae, tels que Platybelodon.
 </t>
@@ -569,9 +588,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des genres d'éléphants ainsi que d'autres familles proches, d'après les caractéristiques de leur os hyoïde, selon Shoshani et al. (2007)[1], les caractéristiques anatomiques du squelette, selon Cozzuol et al. 2012[2], et les caractéristiques génétiques selon Meyer et al. 2017[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des genres d'éléphants ainsi que d'autres familles proches, d'après les caractéristiques de leur os hyoïde, selon Shoshani et al. (2007), les caractéristiques anatomiques du squelette, selon Cozzuol et al. 2012, et les caractéristiques génétiques selon Meyer et al. 2017 :
 </t>
         </is>
       </c>
@@ -600,7 +621,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Amebelodon fricki Barbour, 1927 (espèce type)</t>
         </is>
